--- a/TensorFlow/TransactionData.xlsx
+++ b/TensorFlow/TransactionData.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikefurr/Documents/GitHub/BreathDetectionSystem/TensorFlow/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB2E185-CD94-2844-B992-D19AB292CBCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="26520" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -46,8 +52,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,16 +69,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -80,29 +106,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -110,6 +127,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -156,7 +181,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,9 +213,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,6 +265,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,14 +458,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="25.83203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -421,57 +488,63 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>0.866462010744436</v>
-      </c>
-      <c r="C2">
-        <v>0.1335379892555641</v>
-      </c>
-      <c r="D2">
-        <v>702.390611409568</v>
-      </c>
-      <c r="E2">
-        <v>710037.4499999988</v>
+      <c r="B2" s="2">
+        <v>0.86646201074443596</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.13353798925556409</v>
+      </c>
+      <c r="D2" s="2">
+        <v>702.39061140956801</v>
+      </c>
+      <c r="E2" s="2">
+        <v>710037.44999999879</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>0.9732824427480916</v>
-      </c>
-      <c r="C3">
-        <v>0.0267175572519084</v>
-      </c>
-      <c r="D3">
-        <v>462.6294529262086</v>
-      </c>
-      <c r="E3">
-        <v>140820.8</v>
+      <c r="B3" s="2">
+        <v>0.97328244274809161</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.67175572519084E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>462.62945292620861</v>
+      </c>
+      <c r="E3" s="2">
+        <v>140820.79999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
-        <v>512316.2500000002</v>
+      <c r="E4" s="2">
+        <v>512316.25000000017</v>
       </c>
     </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
